--- a/股票操盘日志.xlsx
+++ b/股票操盘日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.5~1.9" sheetId="1" r:id="rId1"/>
@@ -379,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +755,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -776,23 +782,17 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,14 +1091,14 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" customWidth="1"/>
+    <col min="5" max="7" width="13.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1146,7 +1146,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="47">
+      <c r="A3" s="49">
         <v>42012</v>
       </c>
       <c r="B3" s="3">
@@ -1164,7 +1164,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="3">
         <v>300021</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="47">
+      <c r="A5" s="49">
         <v>42013</v>
       </c>
       <c r="B5" s="5">
@@ -1200,7 +1200,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="5">
         <v>300021</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="5">
         <v>601377</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1260,9 +1260,9 @@
   <conditionalFormatting sqref="A1:H1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1289,17 +1289,17 @@
       <selection pane="bottomLeft" sqref="A1:J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="38.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1338,17 +1338,17 @@
       <c r="A2" s="18">
         <v>42015</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="18">
@@ -1570,17 +1570,17 @@
       <c r="A15" s="18">
         <v>42016</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18">
@@ -1796,17 +1796,17 @@
       <c r="A28" s="18">
         <v>42017</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="18">
@@ -2052,17 +2052,17 @@
       <c r="A43" s="18">
         <v>42018</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="18">
@@ -2288,17 +2288,17 @@
       <c r="A57" s="18">
         <v>42019</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="55"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="18">
@@ -2514,9 +2514,9 @@
   <conditionalFormatting sqref="A1:J1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -2534,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2542,18 +2542,18 @@
       <selection pane="bottomLeft" sqref="A1:J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="46" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" customWidth="1"/>
+    <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2589,19 +2589,19 @@
       <c r="A2" s="18">
         <v>42022</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" ht="19">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="18">
         <v>42023</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="19">
+    <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
         <v>17</v>
@@ -2639,7 +2639,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="19">
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="14"/>
       <c r="B5" s="20" t="s">
         <v>18</v>
@@ -2655,7 +2655,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:10" ht="19">
+    <row r="6" spans="1:10" ht="20.25">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
         <v>14</v>
@@ -2671,7 +2671,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="19">
+    <row r="7" spans="1:10" ht="20.25">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
         <v>20</v>
@@ -2687,7 +2687,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" ht="19">
+    <row r="8" spans="1:10" ht="20.25">
       <c r="A8" s="14"/>
       <c r="B8" s="20" t="s">
         <v>47</v>
@@ -2703,7 +2703,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="19">
+    <row r="9" spans="1:10" ht="20.25">
       <c r="A9" s="14"/>
       <c r="B9" s="20" t="s">
         <v>44</v>
@@ -2719,7 +2719,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="19">
+    <row r="10" spans="1:10" ht="20.25">
       <c r="A10" s="14"/>
       <c r="B10" s="20">
         <v>601000</v>
@@ -2735,7 +2735,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="19">
+    <row r="11" spans="1:10" ht="20.25">
       <c r="A11" s="14"/>
       <c r="B11" s="20">
         <v>300251</v>
@@ -2751,7 +2751,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="19">
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>29</v>
@@ -2769,7 +2769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19">
+    <row r="13" spans="1:10" ht="20.25">
       <c r="A13" s="14"/>
       <c r="B13" s="20">
         <v>600221</v>
@@ -2785,7 +2785,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="19">
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="14"/>
       <c r="B14" s="20" t="s">
         <v>41</v>
@@ -2805,19 +2805,19 @@
       <c r="A15" s="18">
         <v>42023</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="19">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25">
       <c r="A16" s="18">
         <v>42024</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="19">
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="14"/>
       <c r="B17" s="20" t="s">
         <v>17</v>
@@ -2851,7 +2851,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" ht="19">
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="14"/>
       <c r="B18" s="20" t="s">
         <v>18</v>
@@ -2867,7 +2867,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="41"/>
     </row>
-    <row r="19" spans="1:10" ht="19">
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="14"/>
       <c r="B19" s="12" t="s">
         <v>14</v>
@@ -2883,7 +2883,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="19">
+    <row r="20" spans="1:10" ht="20.25">
       <c r="A20" s="14"/>
       <c r="B20" s="20" t="s">
         <v>20</v>
@@ -2899,7 +2899,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="19">
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="14"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2915,7 +2915,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" ht="19">
+    <row r="22" spans="1:10" ht="20.25">
       <c r="A22" s="14"/>
       <c r="B22" s="20" t="s">
         <v>44</v>
@@ -2931,7 +2931,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" ht="19">
+    <row r="23" spans="1:10" ht="20.25">
       <c r="A23" s="14"/>
       <c r="B23" s="20">
         <v>601000</v>
@@ -2947,7 +2947,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="19">
+    <row r="24" spans="1:10" ht="20.25">
       <c r="A24" s="14"/>
       <c r="B24" s="20">
         <v>300251</v>
@@ -2963,7 +2963,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" ht="19">
+    <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>29</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="19">
+    <row r="26" spans="1:10" ht="20.25">
       <c r="A26" s="14"/>
       <c r="B26" s="20">
         <v>600221</v>
@@ -2997,7 +2997,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" ht="19">
+    <row r="27" spans="1:10" ht="20.25">
       <c r="A27" s="14"/>
       <c r="B27" s="20" t="s">
         <v>41</v>
@@ -3017,19 +3017,19 @@
       <c r="A28" s="18">
         <v>42024</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" ht="19">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25">
       <c r="A29" s="18">
         <v>42025</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="19">
+    <row r="30" spans="1:10" ht="20.25">
       <c r="A30" s="14"/>
       <c r="B30" s="20" t="s">
         <v>17</v>
@@ -3069,7 +3069,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="19">
+    <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="14"/>
       <c r="B31" s="20" t="s">
         <v>20</v>
@@ -3085,7 +3085,7 @@
       <c r="I31" s="20"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" ht="19">
+    <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -3101,7 +3101,7 @@
       <c r="I32" s="20"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="19">
+    <row r="33" spans="1:10" ht="20.25">
       <c r="A33" s="14"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -3117,7 +3117,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" ht="19">
+    <row r="34" spans="1:10" ht="20.25">
       <c r="A34" s="14"/>
       <c r="B34" s="20">
         <v>601000</v>
@@ -3133,7 +3133,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10" ht="19">
+    <row r="35" spans="1:10" ht="20.25">
       <c r="A35" s="14"/>
       <c r="B35" s="20">
         <v>300251</v>
@@ -3149,7 +3149,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10" ht="19">
+    <row r="36" spans="1:10" ht="20.25">
       <c r="A36" s="14"/>
       <c r="B36" s="20" t="s">
         <v>17</v>
@@ -3165,7 +3165,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="19">
+    <row r="37" spans="1:10" ht="20.25">
       <c r="A37" s="14"/>
       <c r="B37" s="20">
         <v>300021</v>
@@ -3181,7 +3181,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="19">
+    <row r="38" spans="1:10" ht="20.25">
       <c r="A38" s="14"/>
       <c r="B38" s="20">
         <v>600221</v>
@@ -3201,19 +3201,19 @@
       <c r="A39" s="18">
         <v>42025</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="1:10" ht="19">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.25">
       <c r="A40" s="18">
         <v>42026</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="19">
+    <row r="41" spans="1:10" ht="20.25">
       <c r="A41" s="14"/>
       <c r="B41" s="20" t="s">
         <v>17</v>
@@ -3253,7 +3253,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10" ht="19">
+    <row r="42" spans="1:10" ht="20.25">
       <c r="A42" s="14"/>
       <c r="B42" s="20" t="s">
         <v>20</v>
@@ -3269,7 +3269,7 @@
       <c r="I42" s="20"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="19">
+    <row r="43" spans="1:10" ht="20.25">
       <c r="A43" s="14"/>
       <c r="B43" s="20" t="s">
         <v>47</v>
@@ -3285,7 +3285,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="19">
+    <row r="44" spans="1:10" ht="20.25">
       <c r="A44" s="14"/>
       <c r="B44" s="20" t="s">
         <v>44</v>
@@ -3301,7 +3301,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="19">
+    <row r="45" spans="1:10" ht="20.25">
       <c r="A45" s="14"/>
       <c r="B45" s="20">
         <v>601000</v>
@@ -3317,7 +3317,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="19">
+    <row r="46" spans="1:10" ht="20.25">
       <c r="A46" s="14"/>
       <c r="B46" s="20">
         <v>300251</v>
@@ -3333,7 +3333,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" ht="19">
+    <row r="47" spans="1:10" ht="20.25">
       <c r="A47" s="14"/>
       <c r="B47" s="20" t="s">
         <v>17</v>
@@ -3349,7 +3349,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10" ht="19">
+    <row r="48" spans="1:10" ht="20.25">
       <c r="A48" s="14"/>
       <c r="B48" s="20">
         <v>300021</v>
@@ -3365,7 +3365,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="19">
+    <row r="49" spans="1:10" ht="20.25">
       <c r="A49" s="14"/>
       <c r="B49" s="20">
         <v>600221</v>
@@ -3385,19 +3385,19 @@
       <c r="A50" s="18">
         <v>42026</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="1:10" ht="19">
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25">
       <c r="A51" s="18">
         <v>42027</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="19">
+    <row r="52" spans="1:10" ht="20.25">
       <c r="A52" s="14"/>
       <c r="B52" s="20" t="s">
         <v>17</v>
@@ -3437,7 +3437,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10" ht="19">
+    <row r="53" spans="1:10" ht="20.25">
       <c r="A53" s="14"/>
       <c r="B53" s="20" t="s">
         <v>20</v>
@@ -3453,7 +3453,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="30"/>
     </row>
-    <row r="54" spans="1:10" ht="19">
+    <row r="54" spans="1:10" ht="20.25">
       <c r="A54" s="14"/>
       <c r="B54" s="20" t="s">
         <v>47</v>
@@ -3469,7 +3469,7 @@
       <c r="I54" s="20"/>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:10" ht="19">
+    <row r="55" spans="1:10" ht="20.25">
       <c r="A55" s="14"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -3485,7 +3485,7 @@
       <c r="I55" s="20"/>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:10" ht="19">
+    <row r="56" spans="1:10" ht="20.25">
       <c r="A56" s="14"/>
       <c r="B56" s="20">
         <v>601000</v>
@@ -3501,7 +3501,7 @@
       <c r="I56" s="22"/>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10" ht="19">
+    <row r="57" spans="1:10" ht="20.25">
       <c r="A57" s="14"/>
       <c r="B57" s="20">
         <v>300251</v>
@@ -3517,7 +3517,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" spans="1:10" ht="19">
+    <row r="58" spans="1:10" ht="20.25">
       <c r="A58" s="14"/>
       <c r="B58" s="20" t="s">
         <v>17</v>
@@ -3533,7 +3533,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" spans="1:10" ht="19">
+    <row r="59" spans="1:10" ht="20.25">
       <c r="A59" s="14"/>
       <c r="B59" s="20">
         <v>300021</v>
@@ -3549,7 +3549,7 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="1:10" ht="19">
+    <row r="60" spans="1:10" ht="20.25">
       <c r="A60" s="14"/>
       <c r="B60" s="20">
         <v>600221</v>
@@ -3577,9 +3577,9 @@
   <conditionalFormatting sqref="A1:J1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3597,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3605,17 +3605,17 @@
       <selection pane="bottomLeft" activeCell="A35" sqref="A35:J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3651,19 +3651,19 @@
       <c r="A2" s="18">
         <v>42029</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" ht="19">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="18">
         <v>42030</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19">
+    <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
         <v>17</v>
@@ -3703,7 +3703,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="19">
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="14"/>
       <c r="B5" s="20" t="s">
         <v>20</v>
@@ -3719,7 +3719,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="19">
+    <row r="6" spans="1:10" ht="20.25">
       <c r="A6" s="14"/>
       <c r="B6" s="20" t="s">
         <v>47</v>
@@ -3735,7 +3735,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" ht="19">
+    <row r="7" spans="1:10" ht="20.25">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
         <v>44</v>
@@ -3751,7 +3751,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" ht="19">
+    <row r="8" spans="1:10" ht="20.25">
       <c r="A8" s="14"/>
       <c r="B8" s="20">
         <v>601000</v>
@@ -3767,7 +3767,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="19">
+    <row r="9" spans="1:10" ht="20.25">
       <c r="A9" s="14"/>
       <c r="B9" s="20">
         <v>300251</v>
@@ -3783,7 +3783,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="19">
+    <row r="10" spans="1:10" ht="20.25">
       <c r="A10" s="14"/>
       <c r="B10" s="20" t="s">
         <v>17</v>
@@ -3799,7 +3799,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="19">
+    <row r="11" spans="1:10" ht="20.25">
       <c r="A11" s="14"/>
       <c r="B11" s="20">
         <v>300021</v>
@@ -3815,7 +3815,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="19">
+    <row r="12" spans="1:10" ht="20.25">
       <c r="A12" s="14"/>
       <c r="B12" s="20">
         <v>600221</v>
@@ -3831,23 +3831,23 @@
       <c r="I12" s="20"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" ht="97" customHeight="1">
+    <row r="13" spans="1:10" ht="96.95" customHeight="1">
       <c r="A13" s="18">
         <v>42030</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="19">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25">
       <c r="A14" s="18">
         <v>42031</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19">
+    <row r="15" spans="1:10" ht="20.25">
       <c r="A15" s="14"/>
       <c r="B15" s="20" t="s">
         <v>17</v>
@@ -3887,7 +3887,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" ht="19">
+    <row r="16" spans="1:10" ht="20.25">
       <c r="A16" s="14"/>
       <c r="B16" s="20" t="s">
         <v>20</v>
@@ -3903,7 +3903,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="19">
+    <row r="17" spans="1:10" ht="20.25">
       <c r="A17" s="14"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -3919,7 +3919,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="19">
+    <row r="18" spans="1:10" ht="20.25">
       <c r="A18" s="14"/>
       <c r="B18" s="20" t="s">
         <v>44</v>
@@ -3935,7 +3935,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="19">
+    <row r="19" spans="1:10" ht="20.25">
       <c r="A19" s="14"/>
       <c r="B19" s="20">
         <v>601000</v>
@@ -3951,7 +3951,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="19">
+    <row r="20" spans="1:10" ht="20.25">
       <c r="A20" s="14"/>
       <c r="B20" s="20">
         <v>300251</v>
@@ -3967,7 +3967,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="19">
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="14"/>
       <c r="B21" s="20" t="s">
         <v>17</v>
@@ -3983,7 +3983,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="19">
+    <row r="22" spans="1:10" ht="20.25">
       <c r="A22" s="14"/>
       <c r="B22" s="20">
         <v>300021</v>
@@ -3999,7 +3999,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="19">
+    <row r="23" spans="1:10" ht="20.25">
       <c r="A23" s="14"/>
       <c r="B23" s="20">
         <v>600221</v>
@@ -4015,30 +4015,30 @@
       <c r="I23" s="20"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="40" customHeight="1">
+    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="18">
         <v>42031</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" ht="19">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="18">
         <v>42032</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="20"/>
@@ -4047,14 +4047,14 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="54"/>
-    </row>
-    <row r="26" spans="1:10" ht="19">
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="22"/>
@@ -4067,7 +4067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="19">
+    <row r="27" spans="1:10" ht="20.25">
       <c r="A27" s="14"/>
       <c r="B27" s="20" t="s">
         <v>20</v>
@@ -4083,7 +4083,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="19">
+    <row r="28" spans="1:10" ht="20.25">
       <c r="A28" s="14"/>
       <c r="B28" s="20" t="s">
         <v>47</v>
@@ -4099,7 +4099,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="19">
+    <row r="29" spans="1:10" ht="20.25">
       <c r="A29" s="14"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -4115,12 +4115,12 @@
       <c r="I29" s="20"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" ht="19">
+    <row r="30" spans="1:10" ht="20.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="22"/>
@@ -4131,7 +4131,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="19">
+    <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="14"/>
       <c r="B31" s="20">
         <v>300251</v>
@@ -4147,7 +4147,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="19">
+    <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
         <v>17</v>
@@ -4163,7 +4163,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="19">
+    <row r="33" spans="1:10" ht="20.25">
       <c r="A33" s="14"/>
       <c r="B33" s="20">
         <v>300021</v>
@@ -4179,7 +4179,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10" ht="19">
+    <row r="34" spans="1:10" ht="20.25">
       <c r="A34" s="14"/>
       <c r="B34" s="20">
         <v>600221</v>
@@ -4199,26 +4199,26 @@
       <c r="A35" s="18">
         <v>42032</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:10" ht="19">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25">
       <c r="A36" s="18">
         <v>42033</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="20"/>
@@ -4227,14 +4227,14 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="54"/>
-    </row>
-    <row r="37" spans="1:10" ht="19">
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25">
       <c r="A37" s="14"/>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="22"/>
@@ -4247,7 +4247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="19">
+    <row r="38" spans="1:10" ht="20.25">
       <c r="A38" s="14"/>
       <c r="B38" s="20" t="s">
         <v>20</v>
@@ -4263,7 +4263,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="19">
+    <row r="39" spans="1:10" ht="20.25">
       <c r="A39" s="14"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -4279,7 +4279,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="19">
+    <row r="40" spans="1:10" ht="20.25">
       <c r="A40" s="14"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -4295,12 +4295,12 @@
       <c r="I40" s="20"/>
       <c r="J40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="19">
+    <row r="41" spans="1:10" ht="20.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="22"/>
@@ -4311,7 +4311,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10" ht="19">
+    <row r="42" spans="1:10" ht="20.25">
       <c r="A42" s="14"/>
       <c r="B42" s="20">
         <v>300251</v>
@@ -4327,7 +4327,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" ht="19">
+    <row r="43" spans="1:10" ht="20.25">
       <c r="A43" s="14"/>
       <c r="B43" s="20" t="s">
         <v>17</v>
@@ -4343,7 +4343,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10" ht="19">
+    <row r="44" spans="1:10" ht="20.25">
       <c r="A44" s="14"/>
       <c r="B44" s="20">
         <v>300021</v>
@@ -4359,7 +4359,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:10" ht="19">
+    <row r="45" spans="1:10" ht="20.25">
       <c r="A45" s="14"/>
       <c r="B45" s="20">
         <v>600221</v>
@@ -4386,9 +4386,9 @@
   <conditionalFormatting sqref="A1:J1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
